--- a/平台产品基线/bak/现场总管基线产品8月-测试方案_bak.xlsx
+++ b/平台产品基线/bak/现场总管基线产品8月-测试方案_bak.xlsx
@@ -18,14 +18,14 @@
     <sheet name="附表" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'现场总管基线产品-需求列表'!$A$1:$I$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'现场总管基线产品-需求列表'!$A$1:$K$86</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="329">
   <si>
     <t>编号</t>
   </si>
@@ -3690,10 +3690,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>实际结果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3702,10 +3698,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>合并审批页面空白</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>未开始</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3715,10 +3707,6 @@
   </si>
   <si>
     <t>通过</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品 服务地址未配置</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3775,10 +3763,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>产品上未发现业务类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>失败</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3795,26 +3779,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>作业票没有所属装置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>手机APP未发现此 入口</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>基础配置-功能位置（未发现）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员变更页面未配置接收人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前 产品上不可编辑，PC上找不到 配置页面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>【作业许可】作业票-会签-最终环节点的签批顺序校验与作业票关闭顺序校验（PC端）（源于海能发项目）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3839,22 +3807,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>未找到“延期是否可以跨越节假日”参数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>新版无此页面</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>产品环境人员变更流程不通，点击确定，提示空白黑框</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有x和勾，而且，措施打X后，还可以会签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>危害数量、措施数量、风险值未显示</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3868,10 +3824,6 @@
   </si>
   <si>
     <t>新版安全分析，无此页面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>还是有新建按钮</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3992,12 +3944,163 @@
     <t>定时任务</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>产品 服务地址未配置 Bug编号：13424</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是有新建按钮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全分析</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有x和勾，而且，措施打X后，还可以会签  可配置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻塞</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不适用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>复测</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只支持刷卡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初测</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP--合并审批-电气清单和吊装信息的处理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务 2569</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡检路线表单字段调整</t>
+  </si>
+  <si>
+    <t>现场总管代码融合IM的准备工作</t>
+  </si>
+  <si>
+    <t>APP添加日志记录（记录android崩溃日志和weex卡死日志）</t>
+  </si>
+  <si>
+    <t>前端代码优化，重构</t>
+  </si>
+  <si>
+    <t>焦阳</t>
+  </si>
+  <si>
+    <t>前端皮肤功能支持</t>
+  </si>
+  <si>
+    <t>前端页面整改一期</t>
+  </si>
+  <si>
+    <t>张锐</t>
+  </si>
+  <si>
+    <t>合并审批-电气清单和吊装信息的处理</t>
+  </si>
+  <si>
+    <t>措施操作的三种交互方式</t>
+  </si>
+  <si>
+    <t>办票耗时优化</t>
+  </si>
+  <si>
+    <t>审批任务推送【伴随扬子石化】</t>
+  </si>
+  <si>
+    <t>新增系统参数“措施完成-是否校验所有措施都有签字结果”【伴随扬子】</t>
+  </si>
+  <si>
+    <t>已提测</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.10,8.18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未覆盖</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已关闭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误提示与原型不一致</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目已完成，产品上未发现业务类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计分析-任务/票证统计【长岭】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品不适用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>气体检测---超时效在票证中新增“暂停记录”【伴随长岭】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4188,8 +4291,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4375,8 +4484,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -4498,6 +4613,56 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -4635,7 +4800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4693,6 +4858,36 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4738,7 +4933,97 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5048,7 +5333,7 @@
   <dimension ref="A1:AH75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10733,28 +11018,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="88.375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.125" style="16" customWidth="1"/>
     <col min="3" max="4" width="9" style="9"/>
     <col min="5" max="5" width="12.5" style="9" customWidth="1"/>
     <col min="6" max="8" width="9" style="9"/>
-    <col min="9" max="9" width="48.25" style="9" customWidth="1"/>
+    <col min="9" max="9" width="46.875" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -10773,298 +11058,335 @@
         <v>27</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1958</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="4">
-        <v>44022</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>2092</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="8">
+        <v>44053</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
-        <v>1867</v>
+        <v>2091</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E3" s="8">
-        <v>44006</v>
+        <v>44053</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
-        <v>1667</v>
+        <v>2068</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>190</v>
+        <v>303</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E4" s="8">
-        <v>43986</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+        <v>44039</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
-        <v>1668</v>
+        <v>2033</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44032</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>2032</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="8">
+        <v>44032</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>2030</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="8">
+        <v>44032</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="8">
-        <v>43986</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1670</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E8" s="8">
+        <v>44032</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21">
+        <v>1987</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D9" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="4">
-        <v>43986</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>1669</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="4">
-        <v>43986</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>1661</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="4">
-        <v>43985</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>1639</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="8">
-        <v>43983</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="26">
+        <v>44029</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
-        <v>1640</v>
+        <v>1986</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>186</v>
+        <v>311</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E10" s="8">
-        <v>43983</v>
+        <v>44029</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
-        <v>1577</v>
+        <v>1972</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="8">
+        <v>44026</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>1971</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="8">
-        <v>43973</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>1552</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="8">
+        <v>44026</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="21">
+        <v>1867</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="4">
-        <v>43972</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>1527</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="8">
-        <v>43970</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E13" s="26">
+        <v>44006</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
-        <v>1528</v>
+        <v>1667</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>86</v>
@@ -11073,148 +11395,158 @@
         <v>78</v>
       </c>
       <c r="E14" s="8">
-        <v>43970</v>
+        <v>43986</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+        <v>326</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
-        <v>1534</v>
+        <v>1668</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E15" s="8">
-        <v>43970</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>43986</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>1421</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>1670</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="4">
-        <v>43958</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="8">
+        <v>43986</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
-        <v>1418</v>
+        <v>1669</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E17" s="8">
-        <v>43958</v>
+        <v>43986</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>251</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
-        <v>1419</v>
+        <v>1661</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E18" s="8">
-        <v>43958</v>
-      </c>
-      <c r="F18" s="7"/>
+        <v>43985</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>251</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
-        <v>1420</v>
+        <v>1639</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E19" s="8">
-        <v>43958</v>
+        <v>43983</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>251</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
-        <v>1425</v>
+        <v>1640</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>86</v>
@@ -11223,163 +11555,197 @@
         <v>99</v>
       </c>
       <c r="E20" s="8">
-        <v>43958</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>175</v>
-      </c>
+        <v>43983</v>
+      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>248</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
-        <v>1303</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>247</v>
+        <v>1577</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="8">
-        <v>43937</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+        <v>43973</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="H21" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
-        <v>1287</v>
+        <v>1552</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E22" s="8">
-        <v>43934</v>
-      </c>
-      <c r="F22" s="7"/>
+        <v>43972</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>1527</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="8">
+        <v>43970</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>933</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="4">
-        <v>43797</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>934</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="4">
-        <v>43797</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <v>1528</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="8">
+        <v>43970</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
-        <v>1284</v>
+        <v>1534</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="8">
+        <v>43970</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>1421</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="8">
-        <v>43931</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>1275</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="4">
-        <v>43930</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
-        <v>1278</v>
+      <c r="D26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="8">
+        <v>43958</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="28">
+        <v>1418</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>86</v>
@@ -11388,44 +11754,56 @@
         <v>78</v>
       </c>
       <c r="E27" s="8">
-        <v>43930</v>
+        <v>43958</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
-        <v>1277</v>
+        <v>245</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="28">
+        <v>1419</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E28" s="8">
-        <v>43930</v>
+        <v>43958</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
-        <v>1232</v>
+        <v>245</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="28">
+        <v>1420</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>149</v>
+        <v>325</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>86</v>
@@ -11434,46 +11812,58 @@
         <v>78</v>
       </c>
       <c r="E29" s="8">
-        <v>43923</v>
+        <v>43958</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" ht="31.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
-        <v>1233</v>
+        <v>1425</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E30" s="8">
-        <v>43923</v>
-      </c>
-      <c r="F30" s="7"/>
+        <v>43958</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>246</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
-        <v>1234</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>153</v>
+        <v>1303</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>244</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>86</v>
@@ -11482,83 +11872,79 @@
         <v>78</v>
       </c>
       <c r="E31" s="8">
-        <v>43923</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>43937</v>
+      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" ht="33" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
+        <v>1287</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
-        <v>1230</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="C32" s="7" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E32" s="8">
-        <v>43923</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>243</v>
-      </c>
+        <v>43934</v>
+      </c>
+      <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="11" t="s">
-        <v>239</v>
+      <c r="H32" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
-        <v>1208</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="8">
-        <v>43920</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>243</v>
-      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>933</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="4">
+        <v>43797</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
-        <v>997</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>934</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>41</v>
@@ -11567,21 +11953,25 @@
         <v>41</v>
       </c>
       <c r="E34" s="4">
-        <v>43817</v>
+        <v>43797</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
-        <v>1192</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>145</v>
+        <v>1284</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>86</v>
@@ -11590,670 +11980,710 @@
         <v>78</v>
       </c>
       <c r="E35" s="8">
-        <v>43917</v>
+        <v>43931</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>237</v>
-      </c>
+      <c r="H35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
-        <v>1193</v>
+        <v>1275</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E36" s="8">
-        <v>43917</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>43930</v>
+      </c>
+      <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
-        <v>1194</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>220</v>
+        <v>1278</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E37" s="8">
-        <v>43917</v>
+        <v>43930</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
-        <v>1084</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>143</v>
+        <v>1277</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E38" s="8">
-        <v>43889</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>43930</v>
+      </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>234</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
-        <v>1080</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>215</v>
+        <v>1232</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E39" s="8">
-        <v>43882</v>
+        <v>43923</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" ht="31.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
-        <v>1077</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>65</v>
+        <v>1233</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E40" s="8">
-        <v>43881</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>43923</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>233</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
-        <v>1078</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>68</v>
+        <v>1234</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E41" s="8">
-        <v>43881</v>
+        <v>43923</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I41" s="7"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7">
-        <v>1079</v>
+        <v>1230</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E42" s="8">
-        <v>43881</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I42" s="7"/>
+        <v>43923</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
-        <v>1076</v>
+        <v>1208</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E43" s="8">
-        <v>43881</v>
-      </c>
-      <c r="F43" s="7"/>
+        <v>43920</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>240</v>
+      </c>
       <c r="G43" s="7"/>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="7">
-        <v>1075</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="I43" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
+        <v>997</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="4">
+        <v>43817</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" ht="33" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="7">
+        <v>1192</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="8">
-        <v>43881</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
-        <v>996</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="4">
-        <v>43817</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="3"/>
+      <c r="D45" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="8">
+        <v>43917</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
-        <v>1017</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>210</v>
+        <v>1193</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>202</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E46" s="8">
-        <v>43829</v>
-      </c>
-      <c r="F46" s="7"/>
+        <v>43917</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
-        <v>1000</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>63</v>
+        <v>1194</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E47" s="8">
-        <v>43818</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="I47" s="7"/>
+        <v>234</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
-        <v>1001</v>
+        <v>1084</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="E48" s="8">
-        <v>43818</v>
-      </c>
-      <c r="F48" s="7"/>
+        <v>43889</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7">
-        <v>998</v>
+        <v>1080</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="8">
+        <v>43882</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="7">
+        <v>1077</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="8">
-        <v>43817</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="7">
-        <v>995</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E50" s="8">
-        <v>43816</v>
+        <v>43881</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="H50" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7">
-        <v>990</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>127</v>
+        <v>1078</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E51" s="8">
-        <v>43815</v>
+        <v>43881</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="H51" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
-        <v>992</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>131</v>
+        <v>1079</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E52" s="8">
-        <v>43815</v>
+        <v>43881</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="H52" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
-        <v>991</v>
+        <v>1076</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>202</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="E53" s="8">
-        <v>43815</v>
+        <v>43881</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
-        <v>987</v>
+        <v>1075</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E54" s="8">
-        <v>43814</v>
+        <v>43881</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E55" s="8">
-        <v>43814</v>
-      </c>
-      <c r="F55" s="7"/>
+        <v>43817</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7">
-        <v>950</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>55</v>
+        <v>1017</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E56" s="8">
-        <v>43800</v>
-      </c>
-      <c r="F56" s="7" t="s">
+        <v>43829</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="8">
+        <v>43818</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="7">
-        <v>949</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="8">
-        <v>43800</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7">
-        <v>926</v>
+        <v>1001</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E58" s="8">
-        <v>43797</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>43818</v>
+      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
-        <v>927</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>106</v>
+        <v>998</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E59" s="8">
-        <v>43797</v>
+        <v>43817</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G59" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="H59" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7">
-        <v>928</v>
+        <v>995</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E60" s="8">
-        <v>43797</v>
+        <v>43816</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7">
-        <v>929</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>112</v>
+        <v>990</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>86</v>
@@ -12262,25 +12692,25 @@
         <v>78</v>
       </c>
       <c r="E61" s="8">
-        <v>43797</v>
+        <v>43815</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7">
-        <v>930</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>115</v>
+        <v>992</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>86</v>
@@ -12289,152 +12719,162 @@
         <v>78</v>
       </c>
       <c r="E62" s="8">
-        <v>43797</v>
+        <v>43815</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7">
-        <v>931</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>117</v>
+        <v>991</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E63" s="8">
-        <v>43797</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>43815</v>
+      </c>
+      <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7">
-        <v>932</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>119</v>
+        <v>987</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E64" s="8">
-        <v>43797</v>
+        <v>43814</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:11" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7">
-        <v>935</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>121</v>
+        <v>988</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E65" s="8">
-        <v>43797</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>43814</v>
+      </c>
+      <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7">
-        <v>917</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>88</v>
+        <v>950</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E66" s="8">
-        <v>43795</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+        <v>43800</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="H66" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="E67" s="8">
-        <v>43795</v>
-      </c>
-      <c r="F67" s="7"/>
+        <v>43800</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7">
-        <v>922</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>101</v>
+        <v>926</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>86</v>
@@ -12443,239 +12883,615 @@
         <v>78</v>
       </c>
       <c r="E68" s="8">
-        <v>43795</v>
-      </c>
-      <c r="F68" s="7"/>
+        <v>43797</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
-        <v>918</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="7">
+        <v>927</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69" s="4">
-        <v>43795</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
-        <v>919</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="D69" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="8">
+        <v>43797</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="7">
+        <v>928</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" s="4">
-        <v>43795</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D70" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="8">
+        <v>43797</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="7">
-        <v>914</v>
+        <v>929</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E71" s="8">
-        <v>43795</v>
+        <v>43797</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7">
-        <v>916</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>296</v>
+        <v>930</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E72" s="8">
-        <v>43795</v>
+        <v>43797</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G72" s="7"/>
       <c r="H72" s="7" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7">
-        <v>921</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>97</v>
+        <v>931</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E73" s="8">
-        <v>43795</v>
+        <v>43797</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
+      <c r="H73" s="7" t="s">
+        <v>234</v>
+      </c>
       <c r="I73" s="7"/>
-    </row>
-    <row r="74" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
-        <v>817</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="7">
+        <v>932</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E74" s="4">
-        <v>43763</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D74" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="8">
+        <v>43797</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7">
-        <v>621</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>200</v>
+        <v>935</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E75" s="8">
-        <v>43703</v>
-      </c>
-      <c r="F75" s="7"/>
+        <v>43797</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I75" s="7"/>
+        <v>234</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="7">
+        <v>917</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="8">
+        <v>43795</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="7">
+        <v>920</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="8">
+        <v>43795</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="7">
+        <v>922</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" s="8">
+        <v>43795</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+    </row>
+    <row r="79" spans="1:11" ht="33" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="7">
+        <v>918</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79" s="8">
+        <v>43795</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="7">
+        <v>919</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E80" s="8">
+        <v>43795</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
+        <v>914</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="8">
+        <v>43795</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+    </row>
+    <row r="82" spans="1:11" ht="33" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="7">
+        <v>916</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" s="8">
+        <v>43795</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="7">
+        <v>921</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="8">
+        <v>43795</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="7">
+        <v>817</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="8">
+        <v>43763</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K84" s="7"/>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="7">
+        <v>621</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85" s="8">
+        <v>43703</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B93" s="16" t="s">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I75">
+  <autoFilter ref="A1:K86">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="激活"/>
+        <filter val="已变更"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
+        <filter val="未开始"/>
         <filter val="研发完毕"/>
-        <filter val="已关闭"/>
+        <filter val="研发中"/>
         <filter val="已计划"/>
+        <filter val="已立项"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="Closed"/>
-        <filter val="郎咸福"/>
-        <filter val="袁庆森"/>
+    <filterColumn colId="4">
+      <filters>
+        <dateGroupItem year="2020" month="5" dateTimeGrouping="month"/>
+        <dateGroupItem year="2020" month="6" dateTimeGrouping="month"/>
+        <dateGroupItem year="2020" month="7" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
       <filters blank="1">
+        <filter val="不做"/>
         <filter val="已完成"/>
-        <filter val="已细分"/>
       </filters>
     </filterColumn>
     <filterColumn colId="7">
       <filters>
+        <filter val="待确认"/>
         <filter val="失败"/>
-        <filter val="阻塞"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters blank="1">
-        <filter val="PC端有，手机端没有"/>
-        <filter val="产品 服务地址未配置"/>
-        <filter val="产品环境人员变更流程不通，点击确定，提示空白黑框"/>
-        <filter val="否"/>
-        <filter val="该需求已过时，已有新字段加入"/>
-        <filter val="还是有新建按钮"/>
-        <filter val="合并审批页面空白"/>
-        <filter val="基础配置-功能位置（未发现）"/>
-        <filter val="目前都叫做“安全作业证种类”"/>
-        <filter val="手机APP未发现此 入口"/>
-        <filter val="四类台账已有"/>
-        <filter val="危害数量、措施数量、风险值未显示"/>
-        <filter val="未发现相关参数设置"/>
         <filter val="未开始"/>
-        <filter val="未完成-新版JSA未包含长庆的个性化，选择作业预约"/>
-        <filter val="未找到“延期是否可以跨越节假日”参数"/>
-        <filter val="无"/>
-        <filter val="增加“确认按钮”方式，中化云龙已经实现，需要迁移至产品；--“确认按钮”修改名称为“本机确认”，目前叫本机账户"/>
-        <filter val="只有x和勾，而且，措施打X后，还可以会签"/>
-        <filter val="只有现场确认有反应，作业申请和作业处理无反应-（已和产品确认，一半功能未开发）"/>
-        <filter val="作业票没有所属装置"/>
-        <filter val="作业预约，还和之前一样（存在减号，人员头像无删除）"/>
+        <filter val="已提测"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H3 H5:H37 H40:H1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="H15:H25 H50:H57 H1:H13 H59:H78 H85:H1048576 H82 H37:H47 H27:H29 H31:H35">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"失败"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>"失败"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"失败"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>"失败"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>"失败"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"失败"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>"失败"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"失败"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"失败"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"失败"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"失败"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"失败"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12699,37 +13515,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="J1" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>279</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -12737,7 +13553,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -12747,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="15">
@@ -12760,7 +13576,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -12770,7 +13586,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="15">
@@ -12783,7 +13599,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -12800,7 +13616,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -12817,7 +13633,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -12834,7 +13650,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -12851,7 +13667,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -12914,10 +13730,10 @@
         <v>27</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
